--- a/dataset2.xlsx
+++ b/dataset2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Documents\Proyectos\graficas-uinissa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3339278D-9865-409C-9BC9-083BBBAA73A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3873E30-3345-479C-A47F-40FAD33F849B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{44A78741-D337-4638-86E4-3A0A82B67555}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{44A78741-D337-4638-86E4-3A0A82B67555}"/>
   </bookViews>
   <sheets>
     <sheet name="ACCESO A SERVICIOS PÚBLICOS" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1579" uniqueCount="66">
   <si>
     <t>1. Agua entubada</t>
   </si>
@@ -288,14 +288,47 @@
   <si>
     <t>Internet</t>
   </si>
+  <si>
+    <t xml:space="preserve"> Frecuencia de cada adicción:</t>
+  </si>
+  <si>
+    <t>Categoría</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Total de pacientes</t>
+  </si>
+  <si>
+    <t>Pacientes con al menos una adicción</t>
+  </si>
+  <si>
+    <t>Pacientes sin adicciones</t>
+  </si>
+  <si>
+    <t>Total de adicciones registradas</t>
+  </si>
+  <si>
+    <t>66 (algunos tienen más de una)</t>
+  </si>
+  <si>
+    <t>Moda (adicción más frecuente)</t>
+  </si>
+  <si>
+    <t>58 (53%)</t>
+  </si>
+  <si>
+    <t>52 (47%)</t>
+  </si>
+  <si>
+    <t>Tabaquismo (29 casos – 44%)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0%"/>
-  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -392,7 +425,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -432,9 +465,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -449,11 +479,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3956,16 +3995,16 @@
       <c r="CS12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CT12" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="CU12" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="CV12" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="CW12" s="17" t="s">
+      <c r="CT12" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="CU12" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV12" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW12" s="16" t="s">
         <v>36</v>
       </c>
       <c r="CX12" s="4" t="s">
@@ -3995,7 +4034,7 @@
       <c r="DF12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="DG12" s="17" t="s">
+      <c r="DG12" s="16" t="s">
         <v>36</v>
       </c>
       <c r="DH12" t="str">
@@ -4295,16 +4334,16 @@
       <c r="CS13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CT13" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="CU13" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="CV13" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="CW13" s="17" t="s">
+      <c r="CT13" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="CU13" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV13" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW13" s="16" t="s">
         <v>36</v>
       </c>
       <c r="CX13" s="4" t="s">
@@ -4334,7 +4373,7 @@
       <c r="DF13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="DG13" s="17" t="s">
+      <c r="DG13" s="16" t="s">
         <v>38</v>
       </c>
       <c r="DH13" t="str">
@@ -4634,16 +4673,16 @@
       <c r="CS14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CT14" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="CU14" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="CV14" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="CW14" s="17" t="s">
+      <c r="CT14" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="CU14" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV14" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW14" s="16" t="s">
         <v>36</v>
       </c>
       <c r="CX14" s="4" t="s">
@@ -4673,7 +4712,7 @@
       <c r="DF14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="DG14" s="17" t="s">
+      <c r="DG14" s="16" t="s">
         <v>38</v>
       </c>
       <c r="DH14" t="str">
@@ -4973,16 +5012,16 @@
       <c r="CS15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CT15" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="CU15" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="CV15" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="CW15" s="17" t="s">
+      <c r="CT15" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="CU15" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV15" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW15" s="16" t="s">
         <v>36</v>
       </c>
       <c r="CX15" s="4" t="s">
@@ -5012,7 +5051,7 @@
       <c r="DF15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="DG15" s="17" t="s">
+      <c r="DG15" s="16" t="s">
         <v>38</v>
       </c>
       <c r="DH15" t="str">
@@ -5312,16 +5351,16 @@
       <c r="CS16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CT16" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="CU16" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="CV16" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="CW16" s="17" t="s">
+      <c r="CT16" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="CU16" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV16" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW16" s="16" t="s">
         <v>36</v>
       </c>
       <c r="CX16" s="4" t="s">
@@ -5351,7 +5390,7 @@
       <c r="DF16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="DG16" s="17" t="s">
+      <c r="DG16" s="16" t="s">
         <v>38</v>
       </c>
       <c r="DH16" t="str">
@@ -5651,16 +5690,16 @@
       <c r="CS17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="CT17" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="CU17" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="CV17" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="CW17" s="17" t="s">
+      <c r="CT17" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="CU17" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV17" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW17" s="16" t="s">
         <v>36</v>
       </c>
       <c r="CX17" s="4" t="s">
@@ -5690,7 +5729,7 @@
       <c r="DF17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="DG17" s="17" t="s">
+      <c r="DG17" s="16" t="s">
         <v>38</v>
       </c>
       <c r="DH17" t="str">
@@ -5990,16 +6029,16 @@
       <c r="CS18" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CT18" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="CU18" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="CV18" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="CW18" s="17" t="s">
+      <c r="CT18" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="CU18" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV18" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW18" s="16" t="s">
         <v>36</v>
       </c>
       <c r="CX18" s="4" t="s">
@@ -6029,7 +6068,7 @@
       <c r="DF18" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="DG18" s="17" t="s">
+      <c r="DG18" s="16" t="s">
         <v>38</v>
       </c>
       <c r="DH18" t="str">
@@ -6047,7 +6086,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED82A75-9FBE-4922-9DD4-66EA7603C034}">
   <dimension ref="A3:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:E10"/>
     </sheetView>
   </sheetViews>
@@ -6062,13 +6101,13 @@
       <c r="A3" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>33</v>
       </c>
     </row>
@@ -6076,13 +6115,13 @@
       <c r="A4" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="20">
         <v>107</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="25">
         <f>+D4/110</f>
         <v>0.97272727272727277</v>
       </c>
@@ -6091,13 +6130,13 @@
       <c r="A5" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="20">
         <v>109</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="25">
         <f t="shared" ref="E5:E10" si="0">+D5/110</f>
         <v>0.99090909090909096</v>
       </c>
@@ -6106,13 +6145,13 @@
       <c r="A6" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="20">
         <v>106</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="25">
         <f t="shared" si="0"/>
         <v>0.96363636363636362</v>
       </c>
@@ -6121,13 +6160,13 @@
       <c r="A7" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="20">
         <v>106</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="25">
         <f t="shared" si="0"/>
         <v>0.96363636363636362</v>
       </c>
@@ -6136,13 +6175,13 @@
       <c r="A8" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="20">
         <v>108</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="25">
         <f t="shared" si="0"/>
         <v>0.98181818181818181</v>
       </c>
@@ -6151,25 +6190,25 @@
       <c r="A9" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="20">
         <v>90</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="25">
         <f t="shared" si="0"/>
         <v>0.81818181818181823</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="20">
         <v>98</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="25">
         <f t="shared" si="0"/>
         <v>0.89090909090909087</v>
       </c>
@@ -6183,7 +6222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30C7E5F6-9DCB-4FA5-9F11-0EDBAD733295}">
   <dimension ref="A1:C113"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -7426,16 +7465,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A261E3-FF9D-40BC-B102-85C8FFA1D3B6}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:E13"/>
+    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="46.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.5546875" customWidth="1"/>
+    <col min="9" max="9" width="26.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -7482,9 +7523,9 @@
       <c r="D7" s="14">
         <v>29</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="24">
         <f>+D7/$D$13</f>
-        <v>0.453125</v>
+        <v>0.43939393939393939</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -7495,11 +7536,11 @@
         <v>29</v>
       </c>
       <c r="D8" s="14">
-        <v>12</v>
-      </c>
-      <c r="E8" s="15">
+        <v>14</v>
+      </c>
+      <c r="E8" s="24">
         <f t="shared" ref="E8:E13" si="0">+D8/$D$13</f>
-        <v>0.1875</v>
+        <v>0.21212121212121213</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -7512,7 +7553,7 @@
       <c r="D9" s="14">
         <v>0</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7527,9 +7568,9 @@
       <c r="D10" s="14">
         <v>4</v>
       </c>
-      <c r="E10" s="15">
-        <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+      <c r="E10" s="24">
+        <f t="shared" si="0"/>
+        <v>6.0606060606060608E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -7542,9 +7583,9 @@
       <c r="D11" s="14">
         <v>7</v>
       </c>
-      <c r="E11" s="15">
-        <f t="shared" si="0"/>
-        <v>0.109375</v>
+      <c r="E11" s="24">
+        <f t="shared" si="0"/>
+        <v>0.10606060606060606</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -7554,9 +7595,9 @@
       <c r="D12" s="14">
         <v>12</v>
       </c>
-      <c r="E12" s="15">
-        <f t="shared" si="0"/>
-        <v>0.1875</v>
+      <c r="E12" s="24">
+        <f t="shared" si="0"/>
+        <v>0.18181818181818182</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -7565,11 +7606,89 @@
       </c>
       <c r="D13" s="12">
         <f>+SUM(D7:D12)</f>
+        <v>66</v>
+      </c>
+      <c r="E13" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H24" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="I24" s="22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H25" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="I25" s="23">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H26" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="I26" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H27" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="I27" s="23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H28" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="I28" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H29" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="I29" s="23" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
